--- a/res/tables/MaleniaData.xlsx
+++ b/res/tables/MaleniaData.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Progetto\Hotel-Malenia\res\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABA2C499-8AD8-4C10-A762-9AF067B7DD37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D859AE47-E338-40DC-AD78-78964607DEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{1E9E1B00-858F-4184-A9F3-6F302A51F4E6}"/>
   </bookViews>
@@ -1348,13 +1348,6 @@
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left style="medium">
           <color indexed="64"/>
@@ -1384,6 +1377,13 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1945,7 +1945,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5091C1EE-B360-4EEE-AF61-8F7CBC61D816}" name="Tabella17" displayName="Tabella17" ref="D4:F16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" headerRowBorderDxfId="3" tableBorderDxfId="4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{5091C1EE-B360-4EEE-AF61-8F7CBC61D816}" name="Tabella17" displayName="Tabella17" ref="D4:F16" totalsRowShown="0" headerRowDxfId="6" dataDxfId="4" headerRowBorderDxfId="5" tableBorderDxfId="3">
   <autoFilter ref="D4:F16" xr:uid="{5091C1EE-B360-4EEE-AF61-8F7CBC61D816}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{CE1965F7-5B83-469B-BAE1-B40A3E6BABF7}" name="TERMINE" dataDxfId="2"/>
@@ -3297,10 +3297,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC43067-F894-4C47-922B-28D91B34693D}">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F103" sqref="F103"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3497,7 +3497,7 @@
         <v>1</v>
       </c>
       <c r="E16" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F16" s="4"/>
     </row>
@@ -3512,7 +3512,7 @@
         <v>1</v>
       </c>
       <c r="E17" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F17" s="4"/>
     </row>
@@ -3527,7 +3527,7 @@
         <v>1</v>
       </c>
       <c r="E18" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F18" s="4"/>
     </row>
@@ -3542,7 +3542,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F19" s="1"/>
     </row>
@@ -4348,32 +4348,60 @@
       </c>
       <c r="E97" s="17"/>
     </row>
-    <row r="100" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="98" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B99" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6"/>
+      <c r="E99" s="7"/>
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B100" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C100" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E100" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C101" s="6"/>
-      <c r="D101" s="6"/>
-      <c r="E101" s="7"/>
+      <c r="B101" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D101" s="12">
+        <v>1</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C102" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D102" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E102" s="10" t="s">
-        <v>3</v>
+      <c r="B102" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D102" s="12">
+        <v>1</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="11" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>5</v>
@@ -4387,7 +4415,7 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>9</v>
@@ -4401,7 +4429,7 @@
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="11" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C105" s="12" t="s">
         <v>5</v>
@@ -4413,141 +4441,141 @@
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B106" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C106" s="12" t="s">
+    <row r="106" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B106" s="14"/>
+      <c r="C106" s="15"/>
+      <c r="D106" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E106" s="17"/>
+    </row>
+    <row r="107" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B108" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6"/>
+      <c r="E108" s="7"/>
+    </row>
+    <row r="109" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B109" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C109" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E109" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D110" s="12">
+        <v>1</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C111" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D106" s="12">
-        <v>1</v>
-      </c>
-      <c r="E106" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B107" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D107" s="12">
-        <v>1</v>
-      </c>
-      <c r="E107" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="108" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B108" s="14"/>
-      <c r="C108" s="15"/>
-      <c r="D108" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E108" s="17"/>
-    </row>
-    <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C110" s="6"/>
-      <c r="D110" s="6"/>
-      <c r="E110" s="7"/>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B111" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C111" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D111" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E111" s="10" t="s">
-        <v>3</v>
+      <c r="D111" s="12">
+        <v>10</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="11" t="s">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C112" s="12" t="s">
         <v>5</v>
       </c>
       <c r="D112" s="12">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="E112" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B113" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C113" s="12" t="s">
+    <row r="113" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B113" s="14"/>
+      <c r="C113" s="15"/>
+      <c r="D113" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E113" s="17"/>
+    </row>
+    <row r="114" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B115" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C115" s="6"/>
+      <c r="D115" s="6"/>
+      <c r="E115" s="7"/>
+    </row>
+    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B116" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C116" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D116" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D117" s="12">
+        <v>1</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D113" s="12">
-        <v>10</v>
-      </c>
-      <c r="E113" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B114" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D114" s="12">
-        <v>10</v>
-      </c>
-      <c r="E114" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="115" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B115" s="14"/>
-      <c r="C115" s="15"/>
-      <c r="D115" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E115" s="17"/>
-    </row>
-    <row r="116" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C117" s="6"/>
-      <c r="D117" s="6"/>
-      <c r="E117" s="7"/>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C118" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D118" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>3</v>
+      <c r="D118" s="12">
+        <v>1</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="119" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B119" s="11" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C119" s="12" t="s">
         <v>5</v>
@@ -4561,7 +4589,7 @@
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C120" s="12" t="s">
         <v>9</v>
@@ -4575,7 +4603,7 @@
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C121" s="12" t="s">
         <v>5</v>
@@ -4587,41 +4615,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B122" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D122" s="12">
-        <v>1</v>
-      </c>
-      <c r="E122" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B123" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="C123" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D123" s="12">
-        <v>1</v>
-      </c>
-      <c r="E123" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="124" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B124" s="14"/>
-      <c r="C124" s="15"/>
-      <c r="D124" s="16" t="s">
+    <row r="122" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B122" s="14"/>
+      <c r="C122" s="15"/>
+      <c r="D122" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="E124" s="17"/>
+      <c r="E122" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/res/tables/MaleniaData.xlsx
+++ b/res/tables/MaleniaData.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\Progetto\Hotel-Malenia\res\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D859AE47-E338-40DC-AD78-78964607DEAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16698A8-921F-4F38-B6A7-E56475C8F550}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{1E9E1B00-858F-4184-A9F3-6F302A51F4E6}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="5" xr2:uid="{1E9E1B00-858F-4184-A9F3-6F302A51F4E6}"/>
   </bookViews>
   <sheets>
     <sheet name="prezziHotel" sheetId="3" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="volumi" sheetId="5" r:id="rId3"/>
     <sheet name="frequenze" sheetId="6" r:id="rId4"/>
     <sheet name="AccessiRidondanze" sheetId="1" r:id="rId5"/>
+    <sheet name="AccessiNoRidondanze" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="732" uniqueCount="164">
   <si>
     <t>Concetto</t>
   </si>
@@ -326,7 +327,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 3L + 4S -&gt; 95 al giorno</t>
+      <t>: 3L + 6S -&gt; 1.900 al giorno</t>
     </r>
   </si>
   <si>
@@ -349,7 +350,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 3L + 6S -&gt; 1.900 al giorno</t>
+      <t>: 2L + 3S -&gt; 80 al giorno</t>
     </r>
   </si>
   <si>
@@ -372,8 +373,564 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 2L + 3S -&gt; 80 al giorno</t>
+      <t>: 7S -&gt; 140 al giorno</t>
     </r>
+  </si>
+  <si>
+    <t>PACCHETTO VACANZE</t>
+  </si>
+  <si>
+    <t>COSTO SETTIMANALE - SINGOLA</t>
+  </si>
+  <si>
+    <t>COSTO SETTIMANALE - DOPPIA</t>
+  </si>
+  <si>
+    <t>COSTO SETTIMANALE - FAMILIARE</t>
+  </si>
+  <si>
+    <t>BED AND BREAKFAST</t>
+  </si>
+  <si>
+    <t>PENSIONE COMPLETA</t>
+  </si>
+  <si>
+    <t>ALL - INCLUSIVE</t>
+  </si>
+  <si>
+    <t>COSTO GIORNALIERO - SINGOLA</t>
+  </si>
+  <si>
+    <t>COSTO GIORNALIERO - DOPPIA</t>
+  </si>
+  <si>
+    <t>COSTO GIORNALIERO - FAMILIARE</t>
+  </si>
+  <si>
+    <t>PRODOTTO</t>
+  </si>
+  <si>
+    <t>LISTINO ALL - INCLUSIVE</t>
+  </si>
+  <si>
+    <t>LISTINO NORMALE</t>
+  </si>
+  <si>
+    <t>Caffè</t>
+  </si>
+  <si>
+    <t>Gratuito</t>
+  </si>
+  <si>
+    <t>Cappuccino</t>
+  </si>
+  <si>
+    <t>SERVIZI HOTEL</t>
+  </si>
+  <si>
+    <t>Infuso</t>
+  </si>
+  <si>
+    <t>Lettino Spiaggia</t>
+  </si>
+  <si>
+    <t>Già compresa nel pacchetto</t>
+  </si>
+  <si>
+    <t>Variante caffetteria</t>
+  </si>
+  <si>
+    <t>Palestra</t>
+  </si>
+  <si>
+    <t>Spremuta</t>
+  </si>
+  <si>
+    <t>Casinò</t>
+  </si>
+  <si>
+    <t>Succo</t>
+  </si>
+  <si>
+    <t>Parcheggio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bevanda </t>
+  </si>
+  <si>
+    <t>Colazione in camera</t>
+  </si>
+  <si>
+    <t>10,00 € a persona</t>
+  </si>
+  <si>
+    <t>Calice vino</t>
+  </si>
+  <si>
+    <t>Variabile</t>
+  </si>
+  <si>
+    <t>Bottiglia vino</t>
+  </si>
+  <si>
+    <t>Birra media</t>
+  </si>
+  <si>
+    <t>Birra grande</t>
+  </si>
+  <si>
+    <t>Spritz</t>
+  </si>
+  <si>
+    <t>Analcolico</t>
+  </si>
+  <si>
+    <t>Cocktail</t>
+  </si>
+  <si>
+    <t>SERVIZI BENESSERE</t>
+  </si>
+  <si>
+    <t>TARIFFE</t>
+  </si>
+  <si>
+    <t>Massaggio Normale</t>
+  </si>
+  <si>
+    <t>Fango con doccia termale</t>
+  </si>
+  <si>
+    <t>Bagno termale</t>
+  </si>
+  <si>
+    <t>Bagno con idromassaggio</t>
+  </si>
+  <si>
+    <t>TERMINE</t>
+  </si>
+  <si>
+    <t>BREVE DESCRIZIONE</t>
+  </si>
+  <si>
+    <t>SINONIMI</t>
+  </si>
+  <si>
+    <t>Colui che risiede nella struttura 
+temporaneamente a seguito di un pagamento.</t>
+  </si>
+  <si>
+    <t>Turista</t>
+  </si>
+  <si>
+    <t>Oggetto che riporta i dati personali di un cliente.</t>
+  </si>
+  <si>
+    <t>Membro del personale</t>
+  </si>
+  <si>
+    <t>Colui che assiste i clienti per tutta la durata del soggiorno.</t>
+  </si>
+  <si>
+    <t>Membro dello staff, Addetto</t>
+  </si>
+  <si>
+    <t>Ruolo</t>
+  </si>
+  <si>
+    <t>Occupazione di un addetto dell'hotel all'interno della struttura.</t>
+  </si>
+  <si>
+    <t>Mansione</t>
+  </si>
+  <si>
+    <t>Listino</t>
+  </si>
+  <si>
+    <t>Quantità di denaro necessaria per poter ottenere una eventuale prestazione oppure per poter acquasitare una bevanda o un prodotto.</t>
+  </si>
+  <si>
+    <t>Prezzo, Costo</t>
+  </si>
+  <si>
+    <t>Resoconto di pagamento</t>
+  </si>
+  <si>
+    <t>Quantità di denaro rimanente che il cliente deve versare all'hotel al termine del suo soggiorno.</t>
+  </si>
+  <si>
+    <t>Permanenza temporanea in un luogo.</t>
+  </si>
+  <si>
+    <t>Villeggiatura</t>
+  </si>
+  <si>
+    <t>Servizio</t>
+  </si>
+  <si>
+    <t>Prestazione da parte di un membro del 
+personale nei confronti di un cliente.</t>
+  </si>
+  <si>
+    <t>Prestazione</t>
+  </si>
+  <si>
+    <t>Stanza familiare</t>
+  </si>
+  <si>
+    <t>Stanza della struttura in grado di accogliere un nucleo familiare di 4 oppure 5 persone.</t>
+  </si>
+  <si>
+    <t>Pensiona completa</t>
+  </si>
+  <si>
+    <t>Piano tariffario dell'hotel che garantisce al
+cliente la permanenza nella struttura e la consumazione gratuita dei 3 pasti principali della giornata.</t>
+  </si>
+  <si>
+    <t>All-inclusive</t>
+  </si>
+  <si>
+    <t>Piano tariffario dell'hotel che garantisce al cliente la permanenza nella struttura, la consumazione gratuita dei 3 pasti principali della giornata e una base di servizi che normalmente sarebbero a pagamento.</t>
+  </si>
+  <si>
+    <t>Richiesta specifica di una bevanda a base di caffè che non è prevista nel menù.</t>
+  </si>
+  <si>
+    <t>Consumazione extra</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Selezione</t>
+  </si>
+  <si>
+    <t>Effettuazione</t>
+  </si>
+  <si>
+    <t>Accesso</t>
+  </si>
+  <si>
+    <t>Addetto ai servizi</t>
+  </si>
+  <si>
+    <t>Erogazione</t>
+  </si>
+  <si>
+    <t>Servizio a pagamento</t>
+  </si>
+  <si>
+    <t>Servizio pulizia camere</t>
+  </si>
+  <si>
+    <t>Condizionamento</t>
+  </si>
+  <si>
+    <t>Codice</t>
+  </si>
+  <si>
+    <t>Operazione</t>
+  </si>
+  <si>
+    <t>Frequenza</t>
+  </si>
+  <si>
+    <t>Registrazione di un nuovo cliente</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Check-out di un ciente</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Effetuare una prenotazione</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>100</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Cancellare una prenotazione</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Visualizzazione di una prenotazione</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>200</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Addebitazione costi di un servizio</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>50</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Lettura di una scheda di un cliente</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a settimana</t>
+    </r>
+  </si>
+  <si>
+    <t>Visualizzazione acquisti di un cliente</t>
+  </si>
+  <si>
+    <t>Visualizzazione clienti</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1000</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al giorno</t>
+    </r>
+  </si>
+  <si>
+    <t>Visualizzazione clienti con filtri</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> al mese</t>
+    </r>
+  </si>
+  <si>
+    <t>Modifica dei listini</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> all'anno</t>
+    </r>
+  </si>
+  <si>
+    <t>Generazione documento con informazioni relative</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">10 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>a settimana</t>
+    </r>
+  </si>
+  <si>
+    <t>OP 8 - Visualizzazione acquisti</t>
+  </si>
+  <si>
+    <t>OP 4 - Cancellare prenotazione</t>
+  </si>
+  <si>
+    <t>SENZA RIDONDANZA (resoconto)</t>
   </si>
   <si>
     <r>
@@ -395,269 +952,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>: 7S -&gt; 140 al giorno</t>
+      <t>: 102L + 3S -&gt; 1.080 al giorno</t>
     </r>
-  </si>
-  <si>
-    <t>PACCHETTO VACANZE</t>
-  </si>
-  <si>
-    <t>COSTO SETTIMANALE - SINGOLA</t>
-  </si>
-  <si>
-    <t>COSTO SETTIMANALE - DOPPIA</t>
-  </si>
-  <si>
-    <t>COSTO SETTIMANALE - FAMILIARE</t>
-  </si>
-  <si>
-    <t>BED AND BREAKFAST</t>
-  </si>
-  <si>
-    <t>PENSIONE COMPLETA</t>
-  </si>
-  <si>
-    <t>ALL - INCLUSIVE</t>
-  </si>
-  <si>
-    <t>COSTO GIORNALIERO - SINGOLA</t>
-  </si>
-  <si>
-    <t>COSTO GIORNALIERO - DOPPIA</t>
-  </si>
-  <si>
-    <t>COSTO GIORNALIERO - FAMILIARE</t>
-  </si>
-  <si>
-    <t>PRODOTTO</t>
-  </si>
-  <si>
-    <t>LISTINO ALL - INCLUSIVE</t>
-  </si>
-  <si>
-    <t>LISTINO NORMALE</t>
-  </si>
-  <si>
-    <t>Caffè</t>
-  </si>
-  <si>
-    <t>Gratuito</t>
-  </si>
-  <si>
-    <t>Cappuccino</t>
-  </si>
-  <si>
-    <t>SERVIZI HOTEL</t>
-  </si>
-  <si>
-    <t>Infuso</t>
-  </si>
-  <si>
-    <t>Lettino Spiaggia</t>
-  </si>
-  <si>
-    <t>Già compresa nel pacchetto</t>
-  </si>
-  <si>
-    <t>Variante caffetteria</t>
-  </si>
-  <si>
-    <t>Palestra</t>
-  </si>
-  <si>
-    <t>Spremuta</t>
-  </si>
-  <si>
-    <t>Casinò</t>
-  </si>
-  <si>
-    <t>Succo</t>
-  </si>
-  <si>
-    <t>Parcheggio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bevanda </t>
-  </si>
-  <si>
-    <t>Colazione in camera</t>
-  </si>
-  <si>
-    <t>10,00 € a persona</t>
-  </si>
-  <si>
-    <t>Calice vino</t>
-  </si>
-  <si>
-    <t>Variabile</t>
-  </si>
-  <si>
-    <t>Bottiglia vino</t>
-  </si>
-  <si>
-    <t>Birra media</t>
-  </si>
-  <si>
-    <t>Birra grande</t>
-  </si>
-  <si>
-    <t>Spritz</t>
-  </si>
-  <si>
-    <t>Analcolico</t>
-  </si>
-  <si>
-    <t>Cocktail</t>
-  </si>
-  <si>
-    <t>SERVIZI BENESSERE</t>
-  </si>
-  <si>
-    <t>TARIFFE</t>
-  </si>
-  <si>
-    <t>Massaggio Normale</t>
-  </si>
-  <si>
-    <t>Fango con doccia termale</t>
-  </si>
-  <si>
-    <t>Bagno termale</t>
-  </si>
-  <si>
-    <t>Bagno con idromassaggio</t>
-  </si>
-  <si>
-    <t>TERMINE</t>
-  </si>
-  <si>
-    <t>BREVE DESCRIZIONE</t>
-  </si>
-  <si>
-    <t>SINONIMI</t>
-  </si>
-  <si>
-    <t>Colui che risiede nella struttura 
-temporaneamente a seguito di un pagamento.</t>
-  </si>
-  <si>
-    <t>Turista</t>
-  </si>
-  <si>
-    <t>Oggetto che riporta i dati personali di un cliente.</t>
-  </si>
-  <si>
-    <t>Membro del personale</t>
-  </si>
-  <si>
-    <t>Colui che assiste i clienti per tutta la durata del soggiorno.</t>
-  </si>
-  <si>
-    <t>Membro dello staff, Addetto</t>
-  </si>
-  <si>
-    <t>Ruolo</t>
-  </si>
-  <si>
-    <t>Occupazione di un addetto dell'hotel all'interno della struttura.</t>
-  </si>
-  <si>
-    <t>Mansione</t>
-  </si>
-  <si>
-    <t>Listino</t>
-  </si>
-  <si>
-    <t>Quantità di denaro necessaria per poter ottenere una eventuale prestazione oppure per poter acquasitare una bevanda o un prodotto.</t>
-  </si>
-  <si>
-    <t>Prezzo, Costo</t>
-  </si>
-  <si>
-    <t>Resoconto di pagamento</t>
-  </si>
-  <si>
-    <t>Quantità di denaro rimanente che il cliente deve versare all'hotel al termine del suo soggiorno.</t>
-  </si>
-  <si>
-    <t>Permanenza temporanea in un luogo.</t>
-  </si>
-  <si>
-    <t>Villeggiatura</t>
-  </si>
-  <si>
-    <t>Servizio</t>
-  </si>
-  <si>
-    <t>Prestazione da parte di un membro del 
-personale nei confronti di un cliente.</t>
-  </si>
-  <si>
-    <t>Prestazione</t>
-  </si>
-  <si>
-    <t>Stanza familiare</t>
-  </si>
-  <si>
-    <t>Stanza della struttura in grado di accogliere un nucleo familiare di 4 oppure 5 persone.</t>
-  </si>
-  <si>
-    <t>Pensiona completa</t>
-  </si>
-  <si>
-    <t>Piano tariffario dell'hotel che garantisce al
-cliente la permanenza nella struttura e la consumazione gratuita dei 3 pasti principali della giornata.</t>
-  </si>
-  <si>
-    <t>All-inclusive</t>
-  </si>
-  <si>
-    <t>Piano tariffario dell'hotel che garantisce al cliente la permanenza nella struttura, la consumazione gratuita dei 3 pasti principali della giornata e una base di servizi che normalmente sarebbero a pagamento.</t>
-  </si>
-  <si>
-    <t>Richiesta specifica di una bevanda a base di caffè che non è prevista nel menù.</t>
-  </si>
-  <si>
-    <t>Consumazione extra</t>
-  </si>
-  <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>Selezione</t>
-  </si>
-  <si>
-    <t>Effettuazione</t>
-  </si>
-  <si>
-    <t>Accesso</t>
-  </si>
-  <si>
-    <t>Addetto ai servizi</t>
-  </si>
-  <si>
-    <t>Erogazione</t>
-  </si>
-  <si>
-    <t>Servizio a pagamento</t>
-  </si>
-  <si>
-    <t>Servizio pulizia camere</t>
-  </si>
-  <si>
-    <t>Condizionamento</t>
-  </si>
-  <si>
-    <t>Codice</t>
-  </si>
-  <si>
-    <t>Operazione</t>
-  </si>
-  <si>
-    <t>Frequenza</t>
-  </si>
-  <si>
-    <t>Registrazione di un nuovo cliente</t>
   </si>
   <si>
     <r>
@@ -669,7 +965,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>10</t>
+      <t>Totale</t>
     </r>
     <r>
       <rPr>
@@ -679,11 +975,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> al giorno</t>
+      <t>: 3L + 4S -&gt; 65 al giorno</t>
     </r>
-  </si>
-  <si>
-    <t>Check-out di un ciente</t>
   </si>
   <si>
     <r>
@@ -695,7 +988,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">10 </t>
+      <t>Totale</t>
     </r>
     <r>
       <rPr>
@@ -705,11 +998,8 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>al giorno</t>
+      <t>: 103L + 4S -&gt; 565 al giorno</t>
     </r>
-  </si>
-  <si>
-    <t>Effetuare una prenotazione</t>
   </si>
   <si>
     <r>
@@ -721,7 +1011,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>100</t>
+      <t>Totale</t>
     </r>
     <r>
       <rPr>
@@ -731,11 +1021,11 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> al giorno</t>
+      <t>: 106L -&gt; 3.200 al giorno</t>
     </r>
   </si>
   <si>
-    <t>Cancellare una prenotazione</t>
+    <t>OP 5 - Visualizzare prenotazione</t>
   </si>
   <si>
     <r>
@@ -747,7 +1037,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>5</t>
+      <t>Totale</t>
     </r>
     <r>
       <rPr>
@@ -757,193 +1047,14 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> al giorno</t>
+      <t>: 105L -&gt; 1.050 a settimana</t>
     </r>
   </si>
   <si>
-    <t>Visualizzazione di una prenotazione</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>200</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Addebitazione costi di un servizio</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>50</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Lettura di una scheda di un cliente</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>10</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> a settimana</t>
-    </r>
-  </si>
-  <si>
-    <t>Visualizzazione acquisti di un cliente</t>
-  </si>
-  <si>
-    <t>Visualizzazione clienti</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1000</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al giorno</t>
-    </r>
-  </si>
-  <si>
-    <t>Visualizzazione clienti con filtri</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> al mese</t>
-    </r>
-  </si>
-  <si>
-    <t>Modifica dei listini</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> all'anno</t>
-    </r>
-  </si>
-  <si>
-    <t>Generazione documento con informazioni relative</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">10 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>a settimana</t>
-    </r>
+    <t>OP 7 - Lettura scheda cliente</t>
+  </si>
+  <si>
+    <t>OP 12 - Generazione documento</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1312,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1296,6 +1407,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -2279,21 +2391,21 @@
   <sheetData>
     <row r="4" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D4" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="F4" s="24" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>48</v>
-      </c>
-      <c r="G4" s="24" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="5" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D5" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E5" s="25">
         <v>400</v>
@@ -2307,7 +2419,7 @@
     </row>
     <row r="6" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D6" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E6" s="25">
         <v>500</v>
@@ -2321,7 +2433,7 @@
     </row>
     <row r="7" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D7" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E7" s="25">
         <v>900</v>
@@ -2335,21 +2447,21 @@
     </row>
     <row r="9" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D9" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="24" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="24" t="s">
+      <c r="G9" s="24" t="s">
         <v>54</v>
-      </c>
-      <c r="G9" s="24" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="10" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D10" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E10" s="25">
         <v>60</v>
@@ -2363,7 +2475,7 @@
     </row>
     <row r="11" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D11" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E11" s="25">
         <v>90</v>
@@ -2377,7 +2489,7 @@
     </row>
     <row r="12" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D12" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E12" s="25">
         <v>150</v>
@@ -2394,21 +2506,21 @@
     </row>
     <row r="14" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E14" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="F14" s="24" t="s">
+      <c r="G14" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="G14" s="24" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="15" spans="4:11" x14ac:dyDescent="0.25">
       <c r="E15" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="F15" s="24" t="s">
         <v>59</v>
-      </c>
-      <c r="F15" s="24" t="s">
-        <v>60</v>
       </c>
       <c r="G15" s="25">
         <v>1</v>
@@ -2417,39 +2529,39 @@
     <row r="16" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D16" s="26"/>
       <c r="E16" s="24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F16" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G16" s="25">
         <v>1.4</v>
       </c>
       <c r="I16" s="24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="J16" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="K16" s="24" t="s">
         <v>57</v>
-      </c>
-      <c r="K16" s="24" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="17" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E17" s="24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F17" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G17" s="25">
         <v>2</v>
       </c>
       <c r="I17" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J17" s="24" t="s">
         <v>64</v>
-      </c>
-      <c r="J17" s="24" t="s">
-        <v>65</v>
       </c>
       <c r="K17" s="25">
         <v>8</v>
@@ -2457,19 +2569,19 @@
     </row>
     <row r="18" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E18" s="24" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F18" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G18" s="25">
         <v>3</v>
       </c>
       <c r="I18" s="24" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="J18" s="24" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K18" s="25">
         <v>5</v>
@@ -2477,16 +2589,16 @@
     </row>
     <row r="19" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E19" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F19" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G19" s="25">
         <v>3.5</v>
       </c>
       <c r="I19" s="24" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J19" s="25">
         <v>5</v>
@@ -2497,16 +2609,16 @@
     </row>
     <row r="20" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E20" s="24" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G20" s="25">
         <v>3</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="J20" s="25">
         <v>8</v>
@@ -2517,10 +2629,10 @@
     </row>
     <row r="21" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E21" s="24" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F21" s="24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G21" s="25">
         <v>3</v>
@@ -2528,13 +2640,13 @@
     </row>
     <row r="22" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E22" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F22" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="F22" s="24" t="s">
-        <v>74</v>
-      </c>
       <c r="G22" s="25" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2544,30 +2656,30 @@
     </row>
     <row r="24" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E24" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="F24" s="30" t="s">
-        <v>76</v>
-      </c>
       <c r="G24" s="25" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H24" s="26"/>
     </row>
     <row r="25" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E25" s="24" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F25" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G25" s="30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E26" s="24" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F26" s="25">
         <v>5</v>
@@ -2578,7 +2690,7 @@
     </row>
     <row r="27" spans="5:11" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E27" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F27" s="25">
         <v>7.5</v>
@@ -2594,7 +2706,7 @@
     </row>
     <row r="29" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E29" s="24" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F29" s="25">
         <v>8</v>
@@ -2606,7 +2718,7 @@
     </row>
     <row r="30" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E30" s="24" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F30" s="25">
         <v>6</v>
@@ -2617,7 +2729,7 @@
     </row>
     <row r="31" spans="5:11" x14ac:dyDescent="0.25">
       <c r="E31" s="24" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F31" s="25">
         <v>9</v>
@@ -2628,15 +2740,15 @@
     </row>
     <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="24" t="s">
         <v>83</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" s="24" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F35" s="25">
         <v>20</v>
@@ -2644,7 +2756,7 @@
     </row>
     <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36" s="24" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F36" s="25">
         <v>40</v>
@@ -2652,7 +2764,7 @@
     </row>
     <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" s="24" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F37" s="25">
         <v>15</v>
@@ -2660,7 +2772,7 @@
     </row>
     <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38" s="24" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F38" s="25">
         <v>25</v>
@@ -2702,13 +2814,13 @@
     <row r="3" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="4:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="F4" s="22" t="s">
         <v>90</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>91</v>
       </c>
       <c r="O4" s="3"/>
     </row>
@@ -2717,10 +2829,10 @@
         <v>16</v>
       </c>
       <c r="E5" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="F5" s="31" t="s">
         <v>92</v>
-      </c>
-      <c r="F5" s="31" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="6" spans="4:15" ht="30" x14ac:dyDescent="0.25">
@@ -2728,50 +2840,50 @@
         <v>11</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="33"/>
     </row>
     <row r="7" spans="4:15" ht="30" x14ac:dyDescent="0.25">
       <c r="D7" s="33" t="s">
+        <v>94</v>
+      </c>
+      <c r="E7" s="34" t="s">
         <v>95</v>
       </c>
-      <c r="E7" s="34" t="s">
+      <c r="F7" s="33" t="s">
         <v>96</v>
-      </c>
-      <c r="F7" s="33" t="s">
-        <v>97</v>
       </c>
       <c r="H7" s="3"/>
     </row>
     <row r="8" spans="4:15" ht="30" x14ac:dyDescent="0.25">
       <c r="D8" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="E8" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E8" s="34" t="s">
+      <c r="F8" s="33" t="s">
         <v>99</v>
-      </c>
-      <c r="F8" s="33" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="9" spans="4:15" ht="75" x14ac:dyDescent="0.25">
       <c r="D9" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="E9" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E9" s="34" t="s">
+      <c r="F9" s="33" t="s">
         <v>102</v>
-      </c>
-      <c r="F9" s="33" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="10" spans="4:15" ht="45" x14ac:dyDescent="0.25">
       <c r="D10" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" s="34" t="s">
         <v>104</v>
-      </c>
-      <c r="E10" s="34" t="s">
-        <v>105</v>
       </c>
       <c r="F10" s="33"/>
     </row>
@@ -2780,59 +2892,59 @@
         <v>30</v>
       </c>
       <c r="E11" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="F11" s="33" t="s">
         <v>106</v>
-      </c>
-      <c r="F11" s="33" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="12" spans="4:15" ht="30" x14ac:dyDescent="0.25">
       <c r="D12" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E12" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="E12" s="34" t="s">
+      <c r="F12" s="33" t="s">
         <v>109</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="13" spans="4:15" ht="45" x14ac:dyDescent="0.25">
       <c r="D13" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E13" s="34" t="s">
         <v>111</v>
-      </c>
-      <c r="E13" s="34" t="s">
-        <v>112</v>
       </c>
       <c r="F13" s="35"/>
     </row>
     <row r="14" spans="4:15" ht="75" x14ac:dyDescent="0.25">
       <c r="D14" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="E14" s="34" t="s">
         <v>113</v>
-      </c>
-      <c r="E14" s="34" t="s">
-        <v>114</v>
       </c>
       <c r="F14" s="35"/>
     </row>
     <row r="15" spans="4:15" ht="90" x14ac:dyDescent="0.25">
       <c r="D15" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="34" t="s">
         <v>115</v>
-      </c>
-      <c r="E15" s="34" t="s">
-        <v>116</v>
       </c>
       <c r="F15" s="35"/>
     </row>
     <row r="16" spans="4:15" ht="45" x14ac:dyDescent="0.25">
       <c r="D16" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" s="37" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="36" t="s">
         <v>117</v>
-      </c>
-      <c r="F16" s="36" t="s">
-        <v>118</v>
       </c>
     </row>
   </sheetData>
@@ -2870,7 +2982,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="38" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2897,7 +3009,7 @@
     </row>
     <row r="8" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B8" s="41" t="s">
         <v>9</v>
@@ -2968,7 +3080,7 @@
     </row>
     <row r="18" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="41" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B18" s="41" t="s">
         <v>9</v>
@@ -3014,7 +3126,7 @@
     </row>
     <row r="24" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="41" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B24" s="41" t="s">
         <v>9</v>
@@ -3026,7 +3138,7 @@
     <row r="25" spans="1:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="43" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B27" s="43" t="s">
         <v>5</v>
@@ -3037,7 +3149,7 @@
     </row>
     <row r="28" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B28" s="41" t="s">
         <v>9</v>
@@ -3048,7 +3160,7 @@
     </row>
     <row r="29" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="41" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B29" s="41" t="s">
         <v>5</v>
@@ -3061,7 +3173,7 @@
     <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="32" spans="1:3" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="41" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B32" s="41" t="s">
         <v>5</v>
@@ -3072,7 +3184,7 @@
     </row>
     <row r="33" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B33" s="45" t="s">
         <v>5</v>
@@ -3118,7 +3230,7 @@
     </row>
     <row r="39" spans="1:5" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B39" s="41" t="s">
         <v>9</v>
@@ -3149,13 +3261,13 @@
   <sheetData>
     <row r="4" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="47" t="s">
+        <v>127</v>
+      </c>
+      <c r="C4" s="47" t="s">
         <v>128</v>
       </c>
-      <c r="C4" s="47" t="s">
+      <c r="D4" s="47" t="s">
         <v>129</v>
-      </c>
-      <c r="D4" s="47" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="5" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3163,10 +3275,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="21" t="s">
         <v>131</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3174,10 +3286,10 @@
         <v>2</v>
       </c>
       <c r="C6" s="21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D6" s="21" t="s">
         <v>133</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3185,10 +3297,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="15" t="s">
         <v>135</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="8" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3196,10 +3308,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="21" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="21" t="s">
         <v>137</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="9" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3207,10 +3319,10 @@
         <v>5</v>
       </c>
       <c r="C9" s="21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="21" t="s">
         <v>139</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="10" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3218,10 +3330,10 @@
         <v>6</v>
       </c>
       <c r="C10" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="21" t="s">
         <v>141</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="11" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3229,10 +3341,10 @@
         <v>7</v>
       </c>
       <c r="C11" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="21" t="s">
         <v>143</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="12" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3240,10 +3352,10 @@
         <v>8</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3251,10 +3363,10 @@
         <v>9</v>
       </c>
       <c r="C13" s="21" t="s">
+        <v>145</v>
+      </c>
+      <c r="D13" s="21" t="s">
         <v>146</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="14" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3262,10 +3374,10 @@
         <v>10</v>
       </c>
       <c r="C14" s="21" t="s">
+        <v>147</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>148</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="15" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3273,10 +3385,10 @@
         <v>11</v>
       </c>
       <c r="C15" s="21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D15" s="21" t="s">
         <v>150</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="16" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -3284,10 +3396,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D16" s="21" t="s">
         <v>152</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -3297,19 +3409,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AC43067-F894-4C47-922B-28D91B34693D}">
-  <dimension ref="A1:F122"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N112" sqref="N112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.5703125" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="14.42578125" customWidth="1"/>
     <col min="3" max="3" width="15.42578125" customWidth="1"/>
     <col min="4" max="4" width="32.140625" customWidth="1"/>
     <col min="5" max="5" width="10" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
+    <col min="6" max="6" width="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3443,7 +3556,7 @@
       <c r="B11" s="14"/>
       <c r="C11" s="15"/>
       <c r="D11" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E11" s="17"/>
     </row>
@@ -3550,7 +3663,7 @@
       <c r="B20" s="14"/>
       <c r="C20" s="15"/>
       <c r="D20" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E20" s="17"/>
     </row>
@@ -3679,12 +3792,12 @@
       <c r="B31" s="14"/>
       <c r="C31" s="15"/>
       <c r="D31" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E31" s="17"/>
     </row>
     <row r="32" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B33" s="5" t="s">
         <v>18</v>
       </c>
@@ -3692,7 +3805,7 @@
       <c r="D33" s="6"/>
       <c r="E33" s="7"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
         <v>0</v>
       </c>
@@ -3706,7 +3819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B35" s="11" t="s">
         <v>28</v>
       </c>
@@ -3720,7 +3833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B36" s="11" t="s">
         <v>12</v>
       </c>
@@ -3734,7 +3847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B37" s="11" t="s">
         <v>16</v>
       </c>
@@ -3748,7 +3861,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B38" s="11" t="s">
         <v>8</v>
       </c>
@@ -3762,7 +3875,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B39" s="11" t="s">
         <v>11</v>
       </c>
@@ -3776,7 +3889,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B40" s="11" t="s">
         <v>10</v>
       </c>
@@ -3790,7 +3903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B41" s="11" t="s">
         <v>4</v>
       </c>
@@ -3804,15 +3917,18 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B42" s="14"/>
       <c r="C42" s="15"/>
       <c r="D42" s="16" t="s">
-        <v>42</v>
+        <v>157</v>
       </c>
       <c r="E42" s="17"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="3"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
     </row>
     <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -4348,60 +4464,32 @@
       </c>
       <c r="E97" s="17"/>
     </row>
-    <row r="98" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B99" s="5" t="s">
+    <row r="100" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B101" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C99" s="6"/>
-      <c r="D99" s="6"/>
-      <c r="E99" s="7"/>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B100" s="8" t="s">
+      <c r="C101" s="6"/>
+      <c r="D101" s="6"/>
+      <c r="E101" s="7"/>
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C100" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D100" s="9" t="s">
+      <c r="C102" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D102" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E100" s="10" t="s">
+      <c r="E102" s="10" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B101" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D101" s="12">
-        <v>1</v>
-      </c>
-      <c r="E101" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B102" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D102" s="12">
-        <v>1</v>
-      </c>
-      <c r="E102" s="13" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="103" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B103" s="11" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C103" s="12" t="s">
         <v>5</v>
@@ -4415,7 +4503,7 @@
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B104" s="11" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C104" s="12" t="s">
         <v>9</v>
@@ -4429,199 +4517,1642 @@
     </row>
     <row r="105" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B105" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D105" s="12">
+        <v>1</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D106" s="12">
+        <v>1</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B107" s="11" t="s">
         <v>11</v>
       </c>
+      <c r="C107" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D107" s="12">
+        <v>1</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B108" s="14"/>
+      <c r="C108" s="15"/>
+      <c r="D108" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E108" s="17"/>
+    </row>
+    <row r="109" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C110" s="6"/>
+      <c r="D110" s="6"/>
+      <c r="E110" s="7"/>
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B111" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C111" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E111" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B112" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D112" s="12">
+        <v>1</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D113" s="12">
+        <v>10</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D114" s="12">
+        <v>10</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B115" s="14"/>
+      <c r="C115" s="15"/>
+      <c r="D115" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E115" s="17"/>
+    </row>
+    <row r="116" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B117" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6"/>
+      <c r="E117" s="7"/>
+    </row>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C118" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D118" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D119" s="12">
+        <v>1</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="120" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B120" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D120" s="12">
+        <v>1</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B121" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D121" s="12">
+        <v>1</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D122" s="12">
+        <v>1</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B123" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D123" s="12">
+        <v>1</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B124" s="14"/>
+      <c r="C124" s="15"/>
+      <c r="D124" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E124" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5EC3296-8FDF-4C89-A16A-D342517C31E8}">
+  <dimension ref="B1:E133"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A115" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17" customWidth="1"/>
+    <col min="3" max="3" width="12.5703125" customWidth="1"/>
+    <col min="4" max="4" width="35.5703125" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6"/>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7"/>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="12">
+        <v>1</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="12">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="12">
+        <v>1</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="12">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="12">
+        <v>1</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="12">
+        <v>1</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="14"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" s="7"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="12">
+        <v>1</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="12">
+        <v>1</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="12">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="12">
+        <v>1</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="12">
+        <v>100</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="12">
+        <v>1</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="16" t="s">
+        <v>156</v>
+      </c>
+      <c r="E21" s="17"/>
+    </row>
+    <row r="22" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="7"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="12">
+        <v>1</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D26" s="12">
+        <v>1</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="12">
+        <v>1</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="12">
+        <v>1</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="12">
+        <v>1</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" s="12">
+        <v>3</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="12">
+        <v>3</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="14"/>
+      <c r="C32" s="15"/>
+      <c r="D32" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E32" s="17"/>
+    </row>
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D35" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="12">
+        <v>1</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="12">
+        <v>1</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="12">
+        <v>1</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D39" s="12">
+        <v>1</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="12">
+        <v>1</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D41" s="12">
+        <v>3</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" s="12">
+        <v>100</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" s="12">
+        <v>3</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B44" s="14"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="E44" s="17"/>
+    </row>
+    <row r="51" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B52" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C52" s="6"/>
+      <c r="D52" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B53" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B54" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" s="12">
+        <v>1</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B55" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D55" s="12">
+        <v>1</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B56" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" s="12">
+        <v>1</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C57" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D57" s="12">
+        <v>1</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B58" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" s="12">
+        <v>1</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B59" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" s="12">
+        <v>100</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B60" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" s="12">
+        <v>1</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B61" s="14"/>
+      <c r="C61" s="15"/>
+      <c r="D61" s="16" t="s">
+        <v>159</v>
+      </c>
+      <c r="E61" s="17"/>
+    </row>
+    <row r="62" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B63" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="7"/>
+    </row>
+    <row r="64" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B64" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C64" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D64" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B65" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" s="12">
+        <v>1</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B66" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D66" s="12">
+        <v>1</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B67" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" s="12">
+        <v>1</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B68" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D68" s="12">
+        <v>1</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B69" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" s="12">
+        <v>1</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B70" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C70" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D70" s="12">
+        <v>1</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B71" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" s="12">
+        <v>1</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B72" s="14"/>
+      <c r="C72" s="15"/>
+      <c r="D72" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E72" s="17"/>
+    </row>
+    <row r="73" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="74" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B74" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C74" s="6"/>
+      <c r="D74" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E74" s="7"/>
+    </row>
+    <row r="75" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B75" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C75" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E75" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B76" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" s="12">
+        <v>1</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B77" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D77" s="12">
+        <v>1</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B78" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" s="12">
+        <v>1</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="79" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B79" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D79" s="12">
+        <v>1</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B80" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" s="12">
+        <v>1</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B81" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" s="12">
+        <v>100</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="82" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B82" s="14"/>
+      <c r="C82" s="15"/>
+      <c r="D82" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E82" s="17"/>
+    </row>
+    <row r="83" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="84" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B84" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C84" s="6"/>
+      <c r="D84" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E84" s="7"/>
+    </row>
+    <row r="85" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B85" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C85" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E85" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B86" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" s="12">
+        <v>1</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="87" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B87" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D87" s="12">
+        <v>1</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B88" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D88" s="12">
+        <v>1</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B89" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D89" s="12">
+        <v>1</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="90" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B90" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D90" s="12">
+        <v>1</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="91" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B91" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D91" s="12">
+        <v>100</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B92" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D92" s="12">
+        <v>30</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="93" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B93" s="14"/>
+      <c r="C93" s="15"/>
+      <c r="D93" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" s="17"/>
+    </row>
+    <row r="101" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B102" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C102" s="19"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="7"/>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B103" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C103" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E103" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B104" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="12">
+        <v>1</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B105" s="11" t="s">
+        <v>8</v>
+      </c>
       <c r="C105" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D105" s="12">
-        <v>1</v>
+        <v>1000</v>
       </c>
       <c r="E105" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="106" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B106" s="14"/>
-      <c r="C106" s="15"/>
-      <c r="D106" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="E106" s="17"/>
-    </row>
-    <row r="107" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="108" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B108" s="18" t="s">
-        <v>25</v>
-      </c>
-      <c r="C108" s="6"/>
-      <c r="D108" s="6"/>
-      <c r="E108" s="7"/>
-    </row>
+    <row r="106" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B106" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D106" s="12">
+        <v>1000</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B107" s="14"/>
+      <c r="C107" s="15"/>
+      <c r="D107" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="E107" s="17"/>
+    </row>
+    <row r="108" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="109" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6"/>
+      <c r="E109" s="7"/>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B110" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C109" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D109" s="9" t="s">
+      <c r="C110" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D110" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E109" s="10" t="s">
+      <c r="E110" s="10" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B110" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D110" s="12">
-        <v>1</v>
-      </c>
-      <c r="E110" s="13" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="111" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B111" s="11" t="s">
-        <v>14</v>
+        <v>33</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D111" s="12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E111" s="13" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="112" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B112" s="11" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="D112" s="12">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="E112" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="113" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B113" s="14"/>
-      <c r="C113" s="15"/>
-      <c r="D113" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="E113" s="17"/>
-    </row>
-    <row r="114" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="113" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B113" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D113" s="12">
+        <v>1</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="114" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B114" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D114" s="12">
+        <v>1</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
     <row r="115" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B115" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C115" s="6"/>
-      <c r="D115" s="6"/>
-      <c r="E115" s="7"/>
-    </row>
-    <row r="116" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B116" s="8" t="s">
+      <c r="B115" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D115" s="12">
+        <v>1</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="116" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B116" s="14"/>
+      <c r="C116" s="15"/>
+      <c r="D116" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="E116" s="17"/>
+    </row>
+    <row r="117" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B118" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="7"/>
+    </row>
+    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B119" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C116" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="D116" s="9" t="s">
+      <c r="C119" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D119" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="E116" s="10" t="s">
+      <c r="E119" s="10" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B117" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D117" s="12">
-        <v>1</v>
-      </c>
-      <c r="E117" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B118" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D118" s="12">
-        <v>1</v>
-      </c>
-      <c r="E118" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.25">
-      <c r="B119" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D119" s="12">
-        <v>1</v>
-      </c>
-      <c r="E119" s="13" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="120" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B120" s="11" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D120" s="12">
         <v>1</v>
       </c>
       <c r="E120" s="13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="121" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B121" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D121" s="12">
+        <v>10</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="122" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B122" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D122" s="12">
+        <v>10</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="123" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B123" s="14"/>
+      <c r="C123" s="15"/>
+      <c r="D123" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="E123" s="17"/>
+    </row>
+    <row r="124" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="125" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B125" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C125" s="6"/>
+      <c r="D125" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="E125" s="7"/>
+    </row>
+    <row r="126" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B126" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C126" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D126" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="E126" s="10" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B127" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D127" s="12">
+        <v>1</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="128" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B128" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D128" s="12">
+        <v>1</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="129" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B129" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D129" s="12">
+        <v>1</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="130" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B130" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D130" s="12">
+        <v>1</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="131" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B131" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C121" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="D121" s="12">
-        <v>1</v>
-      </c>
-      <c r="E121" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="122" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B122" s="14"/>
-      <c r="C122" s="15"/>
-      <c r="D122" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="E122" s="17"/>
+      <c r="C131" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D131" s="12">
+        <v>1</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="132" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B132" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D132" s="12">
+        <v>100</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="133" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B133" s="14"/>
+      <c r="C133" s="15"/>
+      <c r="D133" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E133" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
